--- a/resources/Excel.xlsx
+++ b/resources/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>საიდენტიფიკაციო/კოდი</t>
   </si>
@@ -44,31 +44,37 @@
     <t>მენეჯერი</t>
   </si>
   <si>
-    <t>Aut quia obcaecati d</t>
-  </si>
-  <si>
-    <t>+1 (292) 666-4629</t>
-  </si>
-  <si>
-    <t>Luke English</t>
-  </si>
-  <si>
-    <t>+1 (438) 672-7164</t>
-  </si>
-  <si>
-    <t>cydu@mailinator.com</t>
-  </si>
-  <si>
-    <t>Placeat deserunt do</t>
-  </si>
-  <si>
-    <t>01/08/2022</t>
+    <t>კომენტარი</t>
+  </si>
+  <si>
+    <t>Laudantium quis vol</t>
+  </si>
+  <si>
+    <t>+1 (783) 392-9525</t>
+  </si>
+  <si>
+    <t>Logan Stein</t>
+  </si>
+  <si>
+    <t>+1 (192) 706-4142</t>
+  </si>
+  <si>
+    <t>xidi@mailinator.com</t>
+  </si>
+  <si>
+    <t>Pariatur Duis maior</t>
+  </si>
+  <si>
+    <t>02/08/2022</t>
   </si>
   <si>
     <t>პოტენციური</t>
   </si>
   <si>
     <t>beka</t>
+  </si>
+  <si>
+    <t>Ad magna saepe quis </t>
   </si>
 </sst>
 </file>
@@ -118,7 +124,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -134,9 +140,10 @@
     <col min="9" max="9" width="40" customWidth="1"/>
     <col min="10" max="10" width="40" customWidth="1"/>
     <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -167,37 +174,43 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:12" ht="30" customHeight="1">
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/resources/Excel.xlsx
+++ b/resources/Excel.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>საიდენტიფიკაციო/კოდი</t>
   </si>
@@ -47,25 +47,28 @@
     <t>კომენტარი</t>
   </si>
   <si>
-    <t>Laudantium quis vol</t>
-  </si>
-  <si>
-    <t>+1 (783) 392-9525</t>
-  </si>
-  <si>
-    <t>Logan Stein</t>
-  </si>
-  <si>
-    <t>+1 (192) 706-4142</t>
-  </si>
-  <si>
-    <t>xidi@mailinator.com</t>
-  </si>
-  <si>
-    <t>Pariatur Duis maior</t>
-  </si>
-  <si>
-    <t>02/08/2022</t>
+    <t>Aut quia obcaecati d</t>
+  </si>
+  <si>
+    <t>+1 (292) 666-4629</t>
+  </si>
+  <si>
+    <t>Luke English</t>
+  </si>
+  <si>
+    <t>+1 (438) 672-7164</t>
+  </si>
+  <si>
+    <t>cydu@mailinator.com</t>
+  </si>
+  <si>
+    <t>Placeat deserunt do</t>
+  </si>
+  <si>
+    <t>10/07/2022</t>
+  </si>
+  <si>
+    <t>01/08/2022</t>
   </si>
   <si>
     <t>პოტენციური</t>
@@ -74,7 +77,7 @@
     <t>beka</t>
   </si>
   <si>
-    <t>Ad magna saepe quis </t>
+    <t>Nemo adipisci accusafewfeewf Nemo adipisci accusafewfeewf Nemo adipisci accusafewfeewf</t>
   </si>
 </sst>
 </file>
@@ -201,16 +204,16 @@
         <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
